--- a/biology/Zoologie/Bobbichthys/Bobbichthys.xlsx
+++ b/biology/Zoologie/Bobbichthys/Bobbichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bobbichthys opercularis
-Bobbichthys est un genre éteint de poissons osseux de l’ordre également éteint des Pachycormiformes, ordre dont la place taxonomique n’est pas déterminée de manière consensuelle (Halecomorpha, Semionotiformes ou téléostéens). Bobbichthys a vécu lors de l’Oxfordien[1].
-Une seule espèce est attachée à ce genre, Bobbichthys opercularis, décrite en 1986 par Gloria Arratia (d)[2].
+Bobbichthys est un genre éteint de poissons osseux de l’ordre également éteint des Pachycormiformes, ordre dont la place taxonomique n’est pas déterminée de manière consensuelle (Halecomorpha, Semionotiformes ou téléostéens). Bobbichthys a vécu lors de l’Oxfordien.
+Une seule espèce est attachée à ce genre, Bobbichthys opercularis, décrite en 1986 par Gloria Arratia (d).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Bobbichthys est une combinaison basée sur Bobb, en l'honneur de Bobb Schaeffer (d) (1913-2004), paléontologue américain, qui a été le premier paléoichtyologiste a encouragé l'auteur, suivi de -ichthys, dérivé du grec ancien ἰχθύς, ikhthús, « poisson »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Bobbichthys est une combinaison basée sur Bobb, en l'honneur de Bobb Schaeffer (d) (1913-2004), paléontologue américain, qui a été le premier paléoichtyologiste a encouragé l'auteur, suivi de -ichthys, dérivé du grec ancien ἰχθύς, ikhthús, « poisson ».
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Gloria Arratia, « New Jurassic Fishes (Teleostei) of Cordillera de Domeyko », Palaeontographica Abteilung A, vol. 192, nos 1-3,‎ avril 1986, p. 75-91 (ISSN 0375-0442 et 2509-8373, lire en ligne)</t>
         </is>
